--- a/Data/EC/NIT-9009528202.xlsx
+++ b/Data/EC/NIT-9009528202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC366B1-0A96-4A20-86F2-B5BCC4B99586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AF91D6-976C-43EA-9828-E86C31E93A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18CF3676-42C1-4477-B691-D6AC3F5031B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89FFC56D-D889-45A1-B1B6-476C2E8A6390}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,22 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45469039</t>
+  </si>
+  <si>
+    <t>CARMELITA PAJARO POSSO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>1026256860</t>
   </si>
   <si>
     <t>TANIA DEL CARMEN PUENTE ALARCON</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2102</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
+    <t>1235041215</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA HERNANDEZ BAENA</t>
+  </si>
+  <si>
+    <t>2411</t>
   </si>
   <si>
     <t>1143374150</t>
@@ -107,46 +125,37 @@
     <t>MAIRA ALEJANDRA PUELLO DE HOYOS</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1235041215</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA HERNANDEZ BAENA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -190,7 +199,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D53E8DC-415E-5F0F-9F35-F6D63889039E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927BF2D5-5B86-D91C-BB6F-4D33635CF50D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,32 +920,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BD869-C332-4ACA-9DFC-29E3E040F5E0}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427023F6-200D-4FB6-83FC-068EC92E3374}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -945,7 +954,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -956,7 +965,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -967,7 +976,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -978,10 +987,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -994,8 +1003,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,15 +1019,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1257578</v>
+        <v>1313678</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,27 +1035,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,27 +1098,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>161120</v>
+        <v>4100</v>
       </c>
       <c r="G16" s="18">
-        <v>4028000</v>
+        <v>3075125</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>161120</v>
@@ -1121,18 +1130,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>161120</v>
@@ -1144,18 +1153,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>161120</v>
@@ -1167,30 +1176,30 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>6149</v>
+        <v>161120</v>
       </c>
       <c r="G20" s="18">
-        <v>4611657</v>
+        <v>4028000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,16 +1213,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>1851</v>
+        <v>12298</v>
       </c>
       <c r="G21" s="18">
-        <v>1388152</v>
+        <v>4611657</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,50 +1236,50 @@
         <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>20800</v>
+        <v>6149</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>4611657</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>1851</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1388152</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1282,18 +1291,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1305,7 +1314,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1316,30 +1325,30 @@
         <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
-        <v>12298</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>4611657</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1351,18 +1360,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1374,18 +1383,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1397,18 +1406,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1420,18 +1429,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1443,18 +1452,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1466,18 +1475,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1489,57 +1498,103 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="24">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="18">
         <v>52000</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>1300000</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="24">
+        <v>20800</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009528202.xlsx
+++ b/Data/EC/NIT-9009528202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AF91D6-976C-43EA-9828-E86C31E93A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19F83F1-5374-4464-AB1A-5943D26A1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89FFC56D-D889-45A1-B1B6-476C2E8A6390}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC973E63-B8EB-4BEF-B30B-90767406AEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,91 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45469039</t>
-  </si>
-  <si>
-    <t>CARMELITA PAJARO POSSO</t>
+    <t>1026256860</t>
+  </si>
+  <si>
+    <t>TANIA DEL CARMEN PUENTE ALARCON</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1143374150</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO MONSALVE JIMENEZ</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1000913551</t>
+  </si>
+  <si>
+    <t>ALEJANDRA HERNANDEZ AGUIRRE</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1143367691</t>
+  </si>
+  <si>
+    <t>MAIRA ALEJANDRA PUELLO DE HOYOS</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1235041215</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA HERNANDEZ BAENA</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
   </si>
   <si>
     <t>2503</t>
   </si>
   <si>
-    <t>1026256860</t>
-  </si>
-  <si>
-    <t>TANIA DEL CARMEN PUENTE ALARCON</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1235041215</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA HERNANDEZ BAENA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1143374150</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO MONSALVE JIMENEZ</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>1000913551</t>
-  </si>
-  <si>
-    <t>ALEJANDRA HERNANDEZ AGUIRRE</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1143367691</t>
-  </si>
-  <si>
-    <t>MAIRA ALEJANDRA PUELLO DE HOYOS</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -199,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,13 +548,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -569,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927BF2D5-5B86-D91C-BB6F-4D33635CF50D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69088E0-A192-1C0E-1142-EC3F469D3785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -591,7 +585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -920,32 +914,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427023F6-200D-4FB6-83FC-068EC92E3374}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB479A9-26B1-4E50-BA3F-F6C678D591AC}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +948,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -965,7 +959,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -976,7 +970,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -987,10 +981,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1003,8 +997,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1019,15 +1013,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1313678</v>
+        <v>1309578</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1029,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>19</v>
@@ -1055,7 +1049,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1075,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1098,27 +1092,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>4100</v>
+        <v>161120</v>
       </c>
       <c r="G16" s="18">
-        <v>3075125</v>
+        <v>4028000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>161120</v>
@@ -1130,18 +1124,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>161120</v>
@@ -1153,18 +1147,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>161120</v>
@@ -1176,30 +1170,30 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>161120</v>
+        <v>6149</v>
       </c>
       <c r="G20" s="18">
-        <v>4028000</v>
+        <v>4611657</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1213,16 +1207,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>12298</v>
+        <v>1851</v>
       </c>
       <c r="G21" s="18">
-        <v>4611657</v>
+        <v>1388152</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1236,50 +1230,50 @@
         <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>6149</v>
+        <v>20800</v>
       </c>
       <c r="G22" s="18">
-        <v>4611657</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="18">
-        <v>1851</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1388152</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1291,18 +1285,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1314,7 +1308,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1325,30 +1319,30 @@
         <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>12298</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>4611657</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1360,18 +1354,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1383,18 +1377,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1406,18 +1400,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1429,18 +1423,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1452,18 +1446,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1475,18 +1469,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1498,18 +1492,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1521,80 +1515,57 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="18">
+    <row r="35" spans="2:10">
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="24">
         <v>52000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="24">
         <v>1300000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="24">
-        <v>20800</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="32"/>
       <c r="H41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
